--- a/data/trans_orig/RUIDO_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23CA0B1E-4EC3-43D3-8BF3-571AB89249B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C1256C-2B80-4177-9193-16275E2F33B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2652497-BDDE-4E8A-92C2-10EC45FBB0FD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DC709CB3-99A9-45F1-A8DD-42C1D5FC56D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="238">
   <si>
     <t>Población según los motivos por los que no pagaría para realizar actuaciones que reduzcan el ruido en su municipio o lugar de residencia en 2023 (Tasa respuesta: 39,63%)</t>
   </si>
@@ -65,808 +65,688 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>No puedo permitírmelo (económicamente)</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>Ya pago demasiados impuestos</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>No me siento responsable del ruido</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>No puedo permitírmelo (económicamente)</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>Ya pago demasiados impuestos</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>No me siento responsable del ruido</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1281,8 +1161,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A488C-F2E9-4A79-BCFC-0077A6B30405}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D193C65-B23E-4D3E-BE8E-8B5C0A50DCDA}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1399,10 +1279,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>3662</v>
+        <v>30746</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1414,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>14738</v>
+        <v>40279</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1429,10 +1309,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N4" s="7">
-        <v>18400</v>
+        <v>71025</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1450,10 +1330,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7">
-        <v>7663</v>
+        <v>70648</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1465,10 +1345,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="I5" s="7">
-        <v>24678</v>
+        <v>83838</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1480,10 +1360,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="N5" s="7">
-        <v>32341</v>
+        <v>154487</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1501,10 +1381,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D6" s="7">
-        <v>10084</v>
+        <v>78881</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1516,10 +1396,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="I6" s="7">
-        <v>9876</v>
+        <v>79251</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1531,10 +1411,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>19960</v>
+        <v>158132</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1552,10 +1432,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>2100</v>
+        <v>32036</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1567,85 +1447,85 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>2233</v>
+        <v>26233</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>83</v>
+      </c>
+      <c r="N7" s="7">
+        <v>58270</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="7">
-        <v>7</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4333</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43346</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>873</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="I8" s="7">
-        <v>1013</v>
+        <v>40484</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="N8" s="7">
-        <v>1886</v>
+        <v>83830</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,102 +1534,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="D9" s="7">
-        <v>24381</v>
+        <v>255657</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
-        <v>98</v>
+        <v>511</v>
       </c>
       <c r="I9" s="7">
-        <v>52539</v>
+        <v>270086</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
-        <v>130</v>
+        <v>817</v>
       </c>
       <c r="N9" s="7">
-        <v>76920</v>
+        <v>525743</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>25180</v>
+        <v>34829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>28403</v>
+        <v>38677</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>53583</v>
+        <v>73506</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,49 +1638,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7">
-        <v>66623</v>
+        <v>75876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="I11" s="7">
-        <v>64247</v>
+        <v>103677</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="N11" s="7">
-        <v>130869</v>
+        <v>179554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,49 +1689,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>171</v>
+      </c>
+      <c r="D12" s="7">
+        <v>163061</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7">
+        <v>197</v>
+      </c>
+      <c r="I12" s="7">
+        <v>125630</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="7">
-        <v>69661</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="7">
-        <v>134</v>
-      </c>
-      <c r="I12" s="7">
-        <v>74035</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>216</v>
+        <v>368</v>
       </c>
       <c r="N12" s="7">
-        <v>143696</v>
+        <v>288691</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,100 +1740,100 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>33361</v>
+        <v>54987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I13" s="7">
-        <v>26953</v>
+        <v>61731</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="N13" s="7">
-        <v>60314</v>
+        <v>116717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>45817</v>
+        <v>36206</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>44704</v>
+        <v>39745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>90521</v>
+        <v>75951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,102 +1842,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="D15" s="7">
-        <v>240642</v>
+        <v>364959</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>413</v>
+        <v>581</v>
       </c>
       <c r="I15" s="7">
-        <v>238342</v>
+        <v>369461</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>687</v>
+        <v>957</v>
       </c>
       <c r="N15" s="7">
-        <v>478984</v>
+        <v>734419</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>32207</v>
+        <v>24935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>41529</v>
+        <v>22199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N16" s="7">
-        <v>73736</v>
+        <v>47134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,49 +1946,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>79617</v>
+        <v>60762</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="I17" s="7">
-        <v>113333</v>
+        <v>283630</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="N17" s="7">
-        <v>192950</v>
+        <v>344392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,49 +1997,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="D18" s="7">
-        <v>164878</v>
+        <v>107268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="I18" s="7">
-        <v>136175</v>
+        <v>73969</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
-        <v>368</v>
+        <v>222</v>
       </c>
       <c r="N18" s="7">
-        <v>301053</v>
+        <v>181237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,100 +2048,100 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>62275</v>
+        <v>27770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>72829</v>
+        <v>27856</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="N19" s="7">
-        <v>135104</v>
+        <v>55626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>39273</v>
+        <v>24260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>45397</v>
+        <v>21068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N20" s="7">
-        <v>84670</v>
+        <v>45328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,102 +2150,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="D21" s="7">
-        <v>378250</v>
+        <v>244996</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>581</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>409264</v>
+        <v>428721</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>957</v>
+        <v>594</v>
       </c>
       <c r="N21" s="7">
-        <v>787513</v>
+        <v>673717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>25231</v>
+        <v>37944</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I22" s="7">
-        <v>23978</v>
+        <v>20386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N22" s="7">
-        <v>49209</v>
+        <v>58330</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,49 +2254,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D23" s="7">
-        <v>62914</v>
+        <v>76056</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="I23" s="7">
-        <v>194282</v>
+        <v>121861</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="N23" s="7">
-        <v>257196</v>
+        <v>197917</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,49 +2305,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D24" s="7">
-        <v>112597</v>
+        <v>139167</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="I24" s="7">
-        <v>79770</v>
+        <v>151885</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
-        <v>222</v>
+        <v>393</v>
       </c>
       <c r="N24" s="7">
-        <v>192367</v>
+        <v>291052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,100 +2356,100 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D25" s="7">
-        <v>30694</v>
+        <v>69637</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="I25" s="7">
-        <v>31293</v>
+        <v>57756</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="N25" s="7">
-        <v>61987</v>
+        <v>127393</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D26" s="7">
-        <v>25720</v>
+        <v>53235</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I26" s="7">
-        <v>23666</v>
+        <v>80859</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="N26" s="7">
-        <v>49386</v>
+        <v>134094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,102 +2458,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>235</v>
+        <v>419</v>
       </c>
       <c r="D27" s="7">
-        <v>257156</v>
+        <v>376039</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
-        <v>359</v>
+        <v>678</v>
       </c>
       <c r="I27" s="7">
-        <v>352989</v>
+        <v>432747</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
-        <v>594</v>
+        <v>1097</v>
       </c>
       <c r="N27" s="7">
-        <v>610145</v>
+        <v>808785</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D28" s="7">
-        <v>37658</v>
+        <v>128454</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="I28" s="7">
-        <v>22178</v>
+        <v>121541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
-        <v>64</v>
+        <v>279</v>
       </c>
       <c r="N28" s="7">
-        <v>59836</v>
+        <v>249995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,49 +2562,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="D29" s="7">
-        <v>78682</v>
+        <v>283343</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
-        <v>191</v>
+        <v>674</v>
       </c>
       <c r="I29" s="7">
-        <v>135245</v>
+        <v>593006</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
-        <v>283</v>
+        <v>1002</v>
       </c>
       <c r="N29" s="7">
-        <v>213926</v>
+        <v>876349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2613,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>155</v>
+        <v>526</v>
       </c>
       <c r="D30" s="7">
-        <v>143236</v>
+        <v>488377</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>212</v>
@@ -2748,34 +2628,34 @@
         <v>213</v>
       </c>
       <c r="H30" s="7">
-        <v>238</v>
+        <v>707</v>
       </c>
       <c r="I30" s="7">
-        <v>165445</v>
+        <v>430735</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
-        <v>393</v>
+        <v>1233</v>
       </c>
       <c r="N30" s="7">
-        <v>308681</v>
+        <v>919112</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,25 +2664,25 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="D31" s="7">
-        <v>75873</v>
+        <v>184430</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>221</v>
       </c>
       <c r="H31" s="7">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="I31" s="7">
-        <v>65217</v>
+        <v>173576</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>222</v>
@@ -2814,10 +2694,10 @@
         <v>224</v>
       </c>
       <c r="M31" s="7">
-        <v>156</v>
+        <v>464</v>
       </c>
       <c r="N31" s="7">
-        <v>141090</v>
+        <v>358005</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>225</v>
@@ -2832,13 +2712,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="D32" s="7">
-        <v>55785</v>
+        <v>157048</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>228</v>
@@ -2850,10 +2730,10 @@
         <v>230</v>
       </c>
       <c r="H32" s="7">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="I32" s="7">
-        <v>90210</v>
+        <v>182156</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>231</v>
@@ -2865,19 +2745,19 @@
         <v>233</v>
       </c>
       <c r="M32" s="7">
-        <v>201</v>
+        <v>487</v>
       </c>
       <c r="N32" s="7">
-        <v>145996</v>
+        <v>339203</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,370 +2766,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>419</v>
+        <v>1336</v>
       </c>
       <c r="D33" s="7">
-        <v>391235</v>
+        <v>1241651</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
-        <v>678</v>
+        <v>2129</v>
       </c>
       <c r="I33" s="7">
-        <v>478295</v>
+        <v>1501014</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
-        <v>1097</v>
+        <v>3465</v>
       </c>
       <c r="N33" s="7">
-        <v>869530</v>
+        <v>2742665</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>93</v>
-      </c>
-      <c r="D34" s="7">
-        <v>123938</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="A34" t="s">
         <v>237</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="7">
-        <v>186</v>
-      </c>
-      <c r="I34" s="7">
-        <v>130826</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M34" s="7">
-        <v>279</v>
-      </c>
-      <c r="N34" s="7">
-        <v>254764</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>328</v>
-      </c>
-      <c r="D35" s="7">
-        <v>295499</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="7">
-        <v>674</v>
-      </c>
-      <c r="I35" s="7">
-        <v>531785</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1002</v>
-      </c>
-      <c r="N35" s="7">
-        <v>827284</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>526</v>
-      </c>
-      <c r="D36" s="7">
-        <v>500455</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H36" s="7">
-        <v>707</v>
-      </c>
-      <c r="I36" s="7">
-        <v>465302</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1233</v>
-      </c>
-      <c r="N36" s="7">
-        <v>965757</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="7">
-        <v>201</v>
-      </c>
-      <c r="D37" s="7">
-        <v>204302</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" s="7">
-        <v>263</v>
-      </c>
-      <c r="I37" s="7">
-        <v>198526</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M37" s="7">
-        <v>464</v>
-      </c>
-      <c r="N37" s="7">
-        <v>402828</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="7">
-        <v>188</v>
-      </c>
-      <c r="D38" s="7">
-        <v>167468</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H38" s="7">
-        <v>299</v>
-      </c>
-      <c r="I38" s="7">
-        <v>204991</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M38" s="7">
-        <v>487</v>
-      </c>
-      <c r="N38" s="7">
-        <v>372459</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1336</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1291663</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="7">
-        <v>2129</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1531429</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3465</v>
-      </c>
-      <c r="N39" s="7">
-        <v>2823092</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>277</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
